--- a/Platform/src/main/resources/demo.xlsx
+++ b/Platform/src/main/resources/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>三月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,15 +68,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>年用水指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>取水用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年用水指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活用水</t>
+    <t>说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取水用途：1生活用水；2生产用水；3绿化用水；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,28 +435,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="9" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="64.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -485,13 +496,16 @@
       <c r="O1" t="s">
         <v>11</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -531,6 +545,9 @@
       </c>
       <c r="O2">
         <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
